--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>683425.8412550894</v>
+        <v>704322.5779357565</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982519</v>
+        <v>284149.5140982515</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10241536.80043314</v>
+        <v>10241536.80043315</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518081.42068238</v>
+        <v>8518081.420682378</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>231.8635835046278</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X2" t="n">
-        <v>231.8635835046283</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="3">
@@ -738,19 +738,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>34.26075711266016</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.168936865286</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598912</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>77.14804664098638</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>243.2386572690346</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>276.1565137023555</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3.048448096658741</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>5.935829240848727</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7.203367682519206</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>290.5286403308943</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.121647921325789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>70.80276983270126</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903385</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>352.84380622259</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>217.5699682789836</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3236091729816</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>43.31785343913992</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>354.7522162574265</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1622,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>101.7177065691263</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903408</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>135.8442372525923</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1974,7 +1974,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
         <v>225.8879277888686</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>12.02120058606609</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,19 +2087,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>376.0368885193223</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>11.6788446020113</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>122.4721255352885</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.998219257061432</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>281.6126679114863</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,10 +2570,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>155.2548023872875</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>116.2349668968049</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.2661864549171</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>284.5615160058697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>28.90966800344418</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>41.75100837039722</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>218.3734398702023</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,19 +3035,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>103.5274726747899</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,19 +3074,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I33" t="n">
         <v>61.42221998250818</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>62.8852869272439</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,19 +3509,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>11.81250465251205</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>48.30972778970682</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>129.0246247964035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>156.7418470016292</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>348.536237638799</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,10 +3755,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>89.30725745073117</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>13.16208281464279</v>
+        <v>284.5615160058697</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.553842565068575</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.05936271613337</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="C2" t="n">
-        <v>21.05936271613337</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="D2" t="n">
-        <v>21.05936271613337</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="E2" t="n">
-        <v>21.05936271613337</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="F2" t="n">
-        <v>21.05936271613337</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613337</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573685</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142367</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098033</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369341</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O2" t="n">
-        <v>950.1371873885156</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V2" t="n">
-        <v>787.0670914110452</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W2" t="n">
-        <v>521.1660470154218</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="X2" t="n">
-        <v>286.9604071117568</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.9604071117568</v>
+        <v>521.1660470154206</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.2968177215889</v>
+        <v>334.1932169262459</v>
       </c>
       <c r="C3" t="n">
-        <v>180.2968177215889</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="D3" t="n">
-        <v>180.2968177215889</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613337</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613337</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683224</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683224</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L3" t="n">
-        <v>265.553708251695</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M3" t="n">
-        <v>265.553708251695</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="N3" t="n">
-        <v>524.9036321565297</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O3" t="n">
-        <v>785.316696249022</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271207</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806669</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806669</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1018.361310440345</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>1018.361310440345</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U3" t="n">
-        <v>1018.361310440345</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V3" t="n">
-        <v>1018.361310440345</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="W3" t="n">
-        <v>764.1239537121437</v>
+        <v>502.4085539463139</v>
       </c>
       <c r="X3" t="n">
-        <v>556.2724535066109</v>
+        <v>502.4085539463139</v>
       </c>
       <c r="Y3" t="n">
-        <v>348.5121547416569</v>
+        <v>502.4085539463139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360313</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955242</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486502</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716489</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706541</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551357</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.05936271613337</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C5" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D5" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E5" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F5" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4574,10 +4574,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
         <v>989.7620250901066</v>
@@ -4604,7 +4604,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W5" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X5" t="n">
         <v>858.9304414063566</v>
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>468.41727518423</v>
+        <v>199.624790878991</v>
       </c>
       <c r="C6" t="n">
-        <v>293.964245903103</v>
+        <v>25.17176159786393</v>
       </c>
       <c r="D6" t="n">
-        <v>293.964245903103</v>
+        <v>25.17176159786393</v>
       </c>
       <c r="E6" t="n">
-        <v>134.7267908976475</v>
+        <v>25.17176159786393</v>
       </c>
       <c r="F6" t="n">
-        <v>134.7267908976475</v>
+        <v>25.17176159786393</v>
       </c>
       <c r="G6" t="n">
-        <v>134.7267908976475</v>
+        <v>25.17176159786393</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>25.17176159786393</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
@@ -4656,10 +4656,10 @@
         <v>541.6429362542214</v>
       </c>
       <c r="N6" t="n">
-        <v>641.2451212288496</v>
+        <v>815.0378848195533</v>
       </c>
       <c r="O6" t="n">
-        <v>907.7419348121334</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P6" t="n">
         <v>1104.626054809422</v>
@@ -4674,22 +4674,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>1098.630267697454</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U6" t="n">
-        <v>1098.630267697454</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V6" t="n">
-        <v>1098.630267697454</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W6" t="n">
-        <v>844.3929109692519</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X6" t="n">
-        <v>844.3929109692519</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y6" t="n">
-        <v>636.6326122042981</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="C7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F7" t="n">
-        <v>22.09252109618844</v>
+        <v>191.7165880308942</v>
       </c>
       <c r="G7" t="n">
         <v>22.09252109618844</v>
@@ -4756,19 +4756,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="U7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2696.016113319914</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2696.016113319914</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>2477.381446291977</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4609311463253</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5139,22 +5139,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5163,7 +5163,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>365.6939024587812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>196.6941021971136</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>365.6939024587812</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X13" t="n">
-        <v>365.6939024587812</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y13" t="n">
-        <v>365.6939024587812</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2465.942913862886</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5291,7 +5291,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
         <v>2544.691559791253</v>
@@ -5303,25 +5303,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2465.942913862886</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y14" t="n">
-        <v>2465.942913862886</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5346,7 +5346,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,25 +5355,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018223</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
         <v>53.94298182036446</v>
@@ -5443,7 +5443,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
         <v>529.6040388502502</v>
@@ -5452,34 +5452,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124032</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810049</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2118.304160219349</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C17" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
@@ -5534,31 +5534,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2504.904000283471</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2504.904000283471</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2504.904000283471</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>2504.904000283471</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W17" t="n">
-        <v>2504.904000283471</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X17" t="n">
-        <v>2504.904000283471</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>2504.904000283471</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
         <v>505.8730812692495</v>
@@ -5589,37 +5589,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
         <v>2289.884200196743</v>
@@ -5637,7 +5637,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2531.696696795508</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C19" t="n">
-        <v>2531.696696795508</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D19" t="n">
-        <v>2531.696696795508</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E19" t="n">
-        <v>2531.696696795508</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F19" t="n">
-        <v>2531.696696795508</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>2362.69689653384</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y19" t="n">
-        <v>2531.696696795508</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1957.780595683987</v>
+        <v>1352.60098147425</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.818078743575</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D20" t="n">
-        <v>1230.552380136825</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E20" t="n">
-        <v>844.7641275385804</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F20" t="n">
-        <v>433.7782227489728</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5777,25 +5777,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748109</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>2344.380435748109</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y20" t="n">
-        <v>2344.380435748109</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5850,28 +5850,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5935,25 +5935,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>274.7355609638946</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X22" t="n">
         <v>274.7355609638946</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.1126181035247</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C23" t="n">
-        <v>863.1126181035247</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D23" t="n">
-        <v>504.8469194967742</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E23" t="n">
-        <v>504.8469194967742</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>504.8469194967742</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>504.8469194967742</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>177.652199532777</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
@@ -5993,13 +5993,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X23" t="n">
-        <v>1639.851790143458</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y23" t="n">
-        <v>1249.712458167646</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6078,16 +6078,16 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>217.9192350259437</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C25" t="n">
-        <v>217.9192350259437</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>217.9192350259437</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>217.9192350259437</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>217.9192350259437</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>2412.69185070359</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>2412.69185070359</v>
       </c>
       <c r="W25" t="n">
-        <v>438.7118141694738</v>
+        <v>2412.69185070359</v>
       </c>
       <c r="X25" t="n">
-        <v>438.7118141694738</v>
+        <v>2412.69185070359</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.9192350259437</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1268.68094731003</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>1268.68094731003</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>782.1957986415198</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>364.2319905397067</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6254,22 +6254,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2579.740033546703</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2325.978248184794</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>1994.915360841223</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>1642.146705571109</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>1268.68094731003</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y26" t="n">
-        <v>1268.68094731003</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E28" t="n">
         <v>53.94298182036446</v>
@@ -6406,28 +6406,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U28" t="n">
-        <v>598.044640063212</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V28" t="n">
-        <v>343.3601518573251</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1577.945354755379</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C29" t="n">
-        <v>1208.982837814967</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D29" t="n">
-        <v>850.7171392082163</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E29" t="n">
-        <v>464.928886609972</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733127</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X29" t="n">
-        <v>2354.684526795312</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y29" t="n">
-        <v>1964.5451948195</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,46 +6537,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2540.369809567132</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2540.369809567132</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2540.369809567132</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2250.952639530171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>885.7444020895366</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C32" t="n">
-        <v>516.7818851491249</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D32" t="n">
-        <v>158.5161865423744</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5161865423744</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y32" t="n">
-        <v>1272.344242153658</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6777,16 +6777,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036446</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036446</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036446</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036446</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>127.3348381583796</v>
       </c>
       <c r="H34" t="n">
         <v>53.94298182036446</v>
@@ -6877,31 +6877,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U34" t="n">
-        <v>525.0086166875648</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V34" t="n">
-        <v>525.0086166875648</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W34" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X34" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857192</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
@@ -6956,31 +6956,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.509002921313</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7114,31 +7114,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005476</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W37" t="n">
-        <v>184.027325963587</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1568.149526959219</v>
+        <v>1332.357248852006</v>
       </c>
       <c r="C38" t="n">
-        <v>1199.187010018807</v>
+        <v>963.3947319115948</v>
       </c>
       <c r="D38" t="n">
-        <v>840.9213114120569</v>
+        <v>605.1290333048444</v>
       </c>
       <c r="E38" t="n">
-        <v>840.9213114120569</v>
+        <v>219.3407807066001</v>
       </c>
       <c r="F38" t="n">
-        <v>429.9354066224493</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>429.9354066224493</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>102.7406866584521</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
@@ -7202,22 +7202,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V38" t="n">
-        <v>2311.057514205145</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W38" t="n">
-        <v>1958.288858935031</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X38" t="n">
-        <v>1958.288858935031</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y38" t="n">
-        <v>1568.149526959219</v>
+        <v>1718.957088916128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7227,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610024</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V40" t="n">
-        <v>184.2708856551155</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1194.683768698139</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C41" t="n">
-        <v>1036.358670716696</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D41" t="n">
-        <v>1036.358670716696</v>
+        <v>1562.144220371539</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533142</v>
@@ -7430,31 +7430,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>1584.823100673951</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1194.683768698139</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7591,28 +7591,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="T43" t="n">
-        <v>632.5337622027571</v>
+        <v>637.9196332460999</v>
       </c>
       <c r="U43" t="n">
-        <v>343.360151857325</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V43" t="n">
-        <v>343.360151857325</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1422.14692331494</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C44" t="n">
-        <v>1422.14692331494</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1422.14692331494</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2198.886095354873</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="W44" t="n">
-        <v>2198.886095354873</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="X44" t="n">
-        <v>2198.886095354873</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.746763379062</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7810,40 +7810,40 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.549250043406</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S46" t="n">
-        <v>2478.260826861568</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T46" t="n">
-        <v>2250.95263953017</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U46" t="n">
-        <v>2250.95263953017</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V46" t="n">
-        <v>2250.95263953017</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W46" t="n">
-        <v>2250.95263953017</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X46" t="n">
         <v>2022.963088632153</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236086</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5917403577178</v>
+        <v>129.5917403577181</v>
       </c>
       <c r="N3" t="n">
-        <v>380.4370814350388</v>
+        <v>322.2342477951059</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>212.3582274761389</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4918077118134</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,13 +22562,13 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>106.6637379862505</v>
       </c>
       <c r="I2" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052851991</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.05760276447</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -22604,16 +22604,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>64.51022451846774</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574584</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X2" t="n">
-        <v>137.8675171738407</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22626,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.6923398882896</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.0844620270375</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>136.5029642206252</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
         <v>199.9652070090748</v>
@@ -22683,16 +22683,16 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.52604629563362</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839138</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871606</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
-        <v>98.27937439570995</v>
+        <v>15.59235192972142</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22790,16 +22790,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>106.0023114483784</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094344</v>
       </c>
       <c r="Y5" t="n">
         <v>110.0814249536981</v>
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22869,7 +22869,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,10 +22878,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>83.75462912602865</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22914,19 +22914,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9252717313231</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22951,10 +22951,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>138.217680340412</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -22996,7 +22996,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,13 +23021,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>74.74425144011326</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,10 +23036,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>53.35675465348592</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23182,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>64.16285195963697</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23221,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229439</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.4290855484175</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>164.3604017932782</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>14.84727966881351</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974511</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>10.52067551358107</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
@@ -23674,7 +23674,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>110.4278323808926</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229436</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>38.57147555637926</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>11.99007165458445</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>370.7126410774145</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,19 +23975,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>37.74728150147268</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>274.6030296399665</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>29.45919070957279</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>52.48018331775026</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,7 +24263,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>4.973311585527455</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>4.669206330491477</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,16 +24440,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,10 +24458,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>168.6679703770697</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24494,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>100.2133534608529</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24646,7 +24646,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,16 +24655,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401875</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>198.4434689341201</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24692,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>85.16958467259929</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>357.3282706526094</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>103.670039652534</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853699</v>
@@ -24889,7 +24889,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>69.82361682150392</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>164.3604017932783</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,19 +24923,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>303.3485730669216</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,19 +24962,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25090,7 +25090,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>83.51295106716016</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801578</v>
@@ -25129,19 +25129,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>85.19271039829678</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25315,13 +25315,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25330,7 +25330,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801578</v>
@@ -25363,19 +25363,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>162.1498185308404</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,19 +25397,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>395.0635410891994</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>103.6215884551544</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -25451,13 +25451,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25603,13 +25603,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>208.5310447693784</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>33.3941324334628</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25685,13 +25685,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25831,13 +25831,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>57.35793452942666</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744437</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,10 +25865,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>314.5901756554921</v>
+        <v>43.19074246426516</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26068,25 +26068,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>142.1113494150893</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>484207.1823542063</v>
+        <v>484207.1823542058</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821774</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.4241821771</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156006.1355264979</v>
+        <v>156006.1355264978</v>
       </c>
       <c r="C2" t="n">
         <v>159463.6497950859</v>
       </c>
       <c r="D2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="E2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="F2" t="n">
+        <v>260237.3490141818</v>
+      </c>
+      <c r="G2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="H2" t="n">
         <v>260237.3490141816</v>
-      </c>
-      <c r="E2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="F2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="G2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="H2" t="n">
-        <v>260237.3490141818</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141817</v>
@@ -26350,10 +26350,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749502</v>
+        <v>110394.4548749495</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.68758438874</v>
+        <v>15106.68758438935</v>
       </c>
       <c r="D3" t="n">
         <v>417183.622153688</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873125004</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.77382447515</v>
+        <v>3323.773824475267</v>
       </c>
       <c r="L3" t="n">
         <v>100763.3119392804</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36111.51865793982</v>
+        <v>33719.40849968306</v>
       </c>
       <c r="C4" t="n">
-        <v>36172.68381749538</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683338</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
         <v>51181.37951678014</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40634.24541322549</v>
+        <v>-38242.13525496816</v>
       </c>
       <c r="C6" t="n">
-        <v>57002.89887642159</v>
+        <v>59398.42223248581</v>
       </c>
       <c r="D6" t="n">
-        <v>-278278.419006625</v>
+        <v>-275750.0978431826</v>
       </c>
       <c r="E6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="F6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105055</v>
       </c>
       <c r="G6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="H6" t="n">
-        <v>172532.8031470632</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="I6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105054</v>
       </c>
       <c r="J6" t="n">
-        <v>103657.104415813</v>
+        <v>106185.4255792556</v>
       </c>
       <c r="K6" t="n">
-        <v>169209.0293225879</v>
+        <v>171737.3504860301</v>
       </c>
       <c r="L6" t="n">
-        <v>71769.49120778267</v>
+        <v>74297.81237122495</v>
       </c>
       <c r="M6" t="n">
-        <v>172532.803147063</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="N6" t="n">
-        <v>172532.803147063</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="O6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105053</v>
       </c>
       <c r="P6" t="n">
-        <v>172532.8031470631</v>
+        <v>175061.1243105053</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
         <v>35.02126071912534</v>
       </c>
       <c r="D3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="E3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="F3" t="n">
-        <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
         <v>276.1565137023555</v>
@@ -26796,40 +26796,40 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678986</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233548</v>
+        <v>12.00787803233596</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979614</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068832</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="D4" t="n">
         <v>398.1307590522002</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516673</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068832</v>
+        <v>12.91447975068877</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>398.1307590522003</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516672</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068832</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
         <v>398.1307590522002</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367775</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887899</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I2" t="n">
-        <v>3.56672738103504</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760526</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324521</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455514</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895192</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019349</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841755</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P2" t="n">
-        <v>13.303932450608</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214545037</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679652</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332559</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318495</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294218</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498196</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104837</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I3" t="n">
-        <v>1.704292963125476</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246607</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750399</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688238</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430047</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418822</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104047</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523179</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.31869329921068</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605635</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705524055</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467912</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564604</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994892</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259097</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047555</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281388</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166792</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471498</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M4" t="n">
-        <v>6.50524192898881</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815848097</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150964</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037132002</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705268</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473157</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750187</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588726</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815398</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,7 +31993,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32002,34 +32002,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,40 +32066,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
@@ -32108,7 +32108,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,25 +32169,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194294</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L2" t="n">
-        <v>196.4945358150183</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945117</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455867</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894762</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668211</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988751</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604674</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>261.9696201058937</v>
+        <v>203.7667864659606</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833256</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031301</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903826</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178763</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M4" t="n">
-        <v>46.0891188908294</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507669</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919064</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P4" t="n">
-        <v>2.29774030202549</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35024,13 +35024,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>100.6082676511396</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821096</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338903</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35817,10 +35817,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,10 +37154,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37324,7 +37324,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37397,7 +37397,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735647</v>
@@ -37543,7 +37543,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435302</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,7 +37631,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37865,7 +37865,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338903</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
@@ -38035,7 +38035,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,7 +38102,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338903</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>742888.175186464</v>
+        <v>678501.3552164226</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624702</v>
+        <v>236428.3313983642</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>9662474.503279341</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8194462.196483679</v>
+        <v>8809834.007315582</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>193.4616495665634</v>
+        <v>106.0346601033205</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>244.5627323611424</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>244.5627323611424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.727340457065887</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>208.2691746069198</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>85.10292845729445</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250708</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,22 +1065,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>91.29290203716397</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>22.69098551756509</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>103.232225911793</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>231.863583504628</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.29854234855172</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>50.05665370612868</v>
       </c>
       <c r="G10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.0372413736212</v>
+        <v>216.1357776764017</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>10.46499054460254</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>176.0115801625519</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>150.2073424562174</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>107.2729019466191</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>87.20030285819837</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>137.2455942660685</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.3262361897691</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>163.4435927426897</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>128.7835007017902</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>196.2859007066698</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>78.41404262324698</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>83.80367750265286</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>59.92209716456431</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>126.9368849988962</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>76.80462337977876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>93.4621016810332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>85.69522927036854</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2994,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>101.780687729549</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>208.9348511226572</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>196.7218456862862</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>336.220782670754</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>382.1301171657271</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>169.357592942358</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>321.7064610691122</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>26.26583888007722</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.1713146630969</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>199.3355115125529</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>108.9701216524068</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>315.74362701362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>99.29033025312199</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T3" t="n">
-        <v>768.6413478676429</v>
+        <v>901.0750406642703</v>
       </c>
       <c r="U3" t="n">
-        <v>768.6413478676429</v>
+        <v>672.856428298418</v>
       </c>
       <c r="V3" t="n">
-        <v>768.6413478676429</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="W3" t="n">
-        <v>525.1925712235429</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X3" t="n">
-        <v>317.3410710180102</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.5807722530562</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.6311445709973</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C5" t="n">
-        <v>266.5980815799443</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D5" t="n">
-        <v>19.56501858889139</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E5" t="n">
-        <v>19.56501858889139</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F5" t="n">
-        <v>19.56501858889139</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>971.4556360535939</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>971.4556360535939</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>760.6642075620503</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>760.6642075620503</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>760.6642075620503</v>
+        <v>2388.358616186806</v>
       </c>
       <c r="V5" t="n">
-        <v>760.6642075620503</v>
+        <v>2057.295728843235</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>1704.527073573121</v>
       </c>
       <c r="X5" t="n">
-        <v>760.6642075620503</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y5" t="n">
-        <v>760.6642075620503</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428.9150115285368</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>254.4619822474098</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>105.5275725861585</v>
+        <v>665.1105362747038</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>505.8730812692483</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>221.4284102423994</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673413</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>670.82192085987</v>
       </c>
       <c r="M6" t="n">
-        <v>551.996449470862</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>2646.935720430046</v>
       </c>
       <c r="S6" t="n">
-        <v>804.9818487541377</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>804.9818487541377</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>804.9818487541377</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>804.9818487541377</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
-        <v>804.9818487541377</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>597.1303485486048</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>597.1303485486048</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0312465334349</v>
+        <v>293.0479818810667</v>
       </c>
       <c r="C7" t="n">
-        <v>158.0312465334349</v>
+        <v>293.0479818810667</v>
       </c>
       <c r="D7" t="n">
-        <v>158.0312465334349</v>
+        <v>293.0479818810667</v>
       </c>
       <c r="E7" t="n">
-        <v>158.0312465334349</v>
+        <v>293.0479818810667</v>
       </c>
       <c r="F7" t="n">
-        <v>158.0312465334349</v>
+        <v>146.1580343831563</v>
       </c>
       <c r="G7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H7" t="n">
-        <v>158.0312465334349</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I7" t="n">
-        <v>135.111059141955</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J7" t="n">
-        <v>41.28197559507151</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="W7" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="X7" t="n">
-        <v>158.0312465334349</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.0312465334349</v>
+        <v>293.0479818810667</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.05936271613335</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C8" t="n">
-        <v>21.05936271613335</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="D8" t="n">
-        <v>21.05936271613335</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>21.05936271613335</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613335</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>818.7624959030029</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>818.7624959030029</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>552.8614515073797</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>286.9604071117565</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.05936271613335</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683216</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>398.824578434775</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>600.5536970360766</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360766</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285688</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480438</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>954.9030226480438</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>954.9030226480438</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>726.6826938902486</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>491.5305856585059</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>237.2932289303043</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>29.44172872477145</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706538</v>
+        <v>104.5052582912015</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706538</v>
+        <v>104.5052582912015</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706538</v>
+        <v>104.5052582912015</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706538</v>
+        <v>104.5052582912015</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706538</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706538</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706538</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706538</v>
+        <v>104.5052582912015</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2065.583954036491</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.62143709608</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D11" t="n">
-        <v>1338.355738489329</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y11" t="n">
-        <v>2452.183794100613</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
         <v>814.0449459359563</v>
@@ -5120,43 +5120,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>64.513679340165</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5229,22 +5229,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1112.426648284106</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C14" t="n">
-        <v>743.4641313436939</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D14" t="n">
-        <v>385.1984327369434</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5296,34 +5296,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2326.789835650672</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>1995.726948307101</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X14" t="n">
-        <v>1112.426648284106</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y14" t="n">
-        <v>1112.426648284106</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5402,7 +5402,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>570.6683391887234</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>343.3601518573251</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V16" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1349.514859931282</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C17" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D17" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
         <v>882.8926947117852</v>
@@ -5506,22 +5506,22 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520779</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>1739.654191907094</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X17" t="n">
-        <v>1739.654191907094</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y17" t="n">
-        <v>1349.514859931282</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005475</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>184.0273259635869</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.157102157134</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C20" t="n">
-        <v>823.1945852167225</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224076</v>
@@ -5770,34 +5770,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>2169.72394915887</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2169.72394915887</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X20" t="n">
-        <v>1796.25819089779</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.756942221256</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V22" t="n">
-        <v>473.4444960005475</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W22" t="n">
-        <v>184.0273259635869</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1150.836072463479</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C23" t="n">
-        <v>1150.836072463479</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D23" t="n">
-        <v>1150.836072463479</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2267.209817970484</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>1914.44116270037</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>1540.975404439291</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y23" t="n">
-        <v>1150.836072463479</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.139433308417</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C25" t="n">
-        <v>415.489254012808</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D25" t="n">
-        <v>415.489254012808</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E25" t="n">
-        <v>415.489254012808</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5993065148977</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>500.139433308417</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>500.139433308417</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.409918978289</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.447402037878</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.181703431127</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E26" t="n">
-        <v>807.393450832883</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4075460432754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018223</v>
+        <v>1975.062590043396</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2287.511075289966</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X28" t="n">
-        <v>2469.159540120206</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y28" t="n">
-        <v>2469.159540120206</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>1704.527073573122</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>977.29885802596</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>977.29885802596</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>566.3129532363525</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>148.3491451345394</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>148.3491451345394</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224079</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6563,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>336.2769833124028</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>186.160343900067</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
         <v>53.94298182036445</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T31" t="n">
-        <v>336.2769833124028</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U31" t="n">
-        <v>336.2769833124028</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V31" t="n">
-        <v>336.2769833124028</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W31" t="n">
-        <v>336.2769833124028</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X31" t="n">
-        <v>336.2769833124028</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y31" t="n">
-        <v>336.2769833124028</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>983.6384645338385</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M32" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N32" t="n">
         <v>1836.345445977174</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614628</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>529.4200491697815</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V34" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W34" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X34" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1580.775345511217</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C35" t="n">
-        <v>1580.775345511217</v>
+        <v>825.721251757727</v>
       </c>
       <c r="D35" t="n">
-        <v>1222.509646904466</v>
+        <v>825.721251757727</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>439.9329991594828</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7013,46 +7013,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W37" t="n">
-        <v>473.4444960005474</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X37" t="n">
-        <v>245.45494510253</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.915471247702</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.952954307291</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="D38" t="n">
-        <v>764.6872557005402</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E38" t="n">
-        <v>378.8990031022959</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>378.8990031022959</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.69838933464703</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="X40" t="n">
-        <v>500.1394333084169</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="Y40" t="n">
-        <v>279.3468541648867</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1567.641263708175</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="C41" t="n">
-        <v>1567.641263708175</v>
+        <v>739.4034003911121</v>
       </c>
       <c r="D41" t="n">
-        <v>1209.375565101424</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E41" t="n">
-        <v>1209.375565101424</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.380435748108</v>
+        <v>1108.365917331524</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.241103772296</v>
+        <v>1108.365917331524</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1485.892406545185</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="C44" t="n">
-        <v>1116.929889604773</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="D44" t="n">
-        <v>758.6641909980228</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E44" t="n">
-        <v>372.8759383997786</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X44" t="n">
-        <v>1485.892406545185</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.892406545185</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7727,43 +7727,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="V46" t="n">
-        <v>2153.290992466904</v>
+        <v>479.6890627586768</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>270.015839604924</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627878</v>
       </c>
       <c r="M6" t="n">
-        <v>316.0396997865139</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2864630672354</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>333.3585268236793</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291452</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.923890002883</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>352.8735455476468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>84.51360120110027</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>6.703079128258253</v>
+        <v>93.82644086885131</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.1711093023382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>120.7101594098652</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>110.1203092595406</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.668440721247274</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>161.4619260715493</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22871,19 +22871,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>72.54215199810649</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>1.115552095143357e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>76.01690022188694</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>132.5602576318105</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>251.45081570889</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>19.47466811430422</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043867</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>197.3841534287527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>95.36439431680256</v>
       </c>
       <c r="G10" t="n">
-        <v>8.114410708933576</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,19 +23314,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.2006972824324</v>
+        <v>170.1021609796519</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>156.8448117144484</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23469,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>205.9187899097099</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>101.0168250520719</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>56.2595003824851</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>257.9999898243885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>262.0406658592146</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498729</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>96.92615468724696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>211.9953744513446</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>170.9117024662845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>3.803228355938131</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24177,7 +24177,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
@@ -24186,13 +24186,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92615468724696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>185.644469365592</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>307.8238960328066</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>83.44314359597497</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,16 +24499,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>309.8090035139047</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,10 +24618,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>29.23400384289894</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>44.88450425060881</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>288.4682683912288</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>58.46921456382805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>59.7258187525627</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.88450425060881</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>173.7989905408234</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,10 +24976,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>89.56002855569153</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>45.70958740150775</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>24.74592857598429</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25213,7 +25213,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25371,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.4819576312213</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.98780970275089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>185.325448678325</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>92.07770895168284</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,7 +25605,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>260.0160353619005</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7047310786145431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>170.3955891659162</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,13 +25842,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>245.7129199682762</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>91.13241872809141</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26070,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,13 +26079,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>186.9915439888557</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465488.0628680184</v>
+        <v>494243.3891182224</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468513.85889795</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484207.1823542062</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787228.4241821774</v>
+        <v>787228.4241821773</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>787228.4241821773</v>
+        <v>787228.4241821771</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>159463.6497950859</v>
       </c>
       <c r="C2" t="n">
-        <v>150588.1755146547</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="D2" t="n">
-        <v>156006.1355264978</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="E2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="F2" t="n">
         <v>260237.3490141817</v>
@@ -26334,22 +26334,22 @@
         <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>440708.0835147453</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024571108</v>
+        <v>102466.1171957466</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33649.84678425771</v>
+        <v>33777.16046143054</v>
       </c>
       <c r="C4" t="n">
-        <v>33663.59862924286</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>33719.40849968307</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26469,31 +26469,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13155.94180136795</v>
+        <v>-63455.18422126235</v>
       </c>
       <c r="C6" t="n">
-        <v>63855.64757802829</v>
+        <v>-305342.9729500593</v>
       </c>
       <c r="D6" t="n">
-        <v>49787.33266244577</v>
+        <v>135365.1105646862</v>
       </c>
       <c r="E6" t="n">
-        <v>-232659.3133730688</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="F6" t="n">
-        <v>175061.1243105054</v>
+        <v>168992.7105646862</v>
       </c>
       <c r="G6" t="n">
-        <v>175061.1243105053</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="H6" t="n">
-        <v>175061.1243105053</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="I6" t="n">
-        <v>175061.1243105054</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="J6" t="n">
-        <v>112001.1817113991</v>
+        <v>96738.01569354703</v>
       </c>
       <c r="K6" t="n">
-        <v>174147.8685080482</v>
+        <v>66526.59336893959</v>
       </c>
       <c r="L6" t="n">
-        <v>170333.5611916579</v>
+        <v>168992.7105646862</v>
       </c>
       <c r="M6" t="n">
-        <v>72627.00661987024</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="N6" t="n">
-        <v>175061.1243105052</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="O6" t="n">
-        <v>175061.1243105053</v>
+        <v>168992.7105646861</v>
       </c>
       <c r="P6" t="n">
-        <v>175061.1243105054</v>
+        <v>168992.7105646862</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>342.7224034979612</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483226</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>365.2844632307143</v>
       </c>
       <c r="M6" t="n">
-        <v>175.9079211413127</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988702</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>203.7667864659613</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36202,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,7 +36211,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K32" t="n">
         <v>297.2230414343419</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37402,7 +37402,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37551,16 +37551,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
